--- a/DB.xlsx
+++ b/DB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erantirer/PycharmProjects/PsychometricTestBot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15377D10-60DD-BE4B-BE20-5201EDD3B9C4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5842938F-14B5-AF41-B0B3-679489C51743}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13458" uniqueCount="7990">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13402" uniqueCount="7987">
   <si>
     <t>answer1</t>
   </si>
@@ -24575,9 +24575,6 @@
     <t>הדעות עדיין חלוקות סביב השאלה אם Neuromarketing היא שיטה טובה יותר משיטות אחרות, מסורתיות יותר.</t>
   </si>
   <si>
-    <t>.By accessing hidden desires locked away inside consumers' heads, marketing agencies hope to find out what people really want, but let's not forget that people are not machines</t>
-  </si>
-  <si>
     <t>   In reality, it's very complicated to predict what people want by accessing parts of their brain. </t>
   </si>
   <si>
@@ -24599,13 +24596,7 @@
     <t>eng_rephrase</t>
   </si>
   <si>
-    <t>eng_rephrase1</t>
-  </si>
-  <si>
-    <t>שאלה לדוגמה</t>
-  </si>
-  <si>
-    <t>תשובה לדוגמה</t>
+    <t>By accessing hidden desires locked away inside consumers' heads, marketing agencies hope to find out what people really want, but let's not forget that people are not machines</t>
   </si>
 </sst>
 </file>
@@ -26572,11 +26563,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="גיליון1"/>
-  <dimension ref="A1:P116"/>
+  <dimension ref="A1:P109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="J110" sqref="J110:J116"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -26645,7 +26634,7 @@
         <v>7536</v>
       </c>
       <c r="J2" t="s">
-        <v>7985</v>
+        <v>7984</v>
       </c>
       <c r="K2" s="1"/>
     </row>
@@ -26678,7 +26667,7 @@
         <v>7521</v>
       </c>
       <c r="J3" t="s">
-        <v>7985</v>
+        <v>7984</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -26710,7 +26699,7 @@
         <v>7522</v>
       </c>
       <c r="J4" t="s">
-        <v>7985</v>
+        <v>7984</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -26742,7 +26731,7 @@
         <v>7523</v>
       </c>
       <c r="J5" t="s">
-        <v>7985</v>
+        <v>7984</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -26774,7 +26763,7 @@
         <v>7524</v>
       </c>
       <c r="J6" t="s">
-        <v>7985</v>
+        <v>7984</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -26806,7 +26795,7 @@
         <v>7525</v>
       </c>
       <c r="J7" t="s">
-        <v>7985</v>
+        <v>7984</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -26838,7 +26827,7 @@
         <v>7526</v>
       </c>
       <c r="J8" t="s">
-        <v>7985</v>
+        <v>7984</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -26870,7 +26859,7 @@
         <v>7527</v>
       </c>
       <c r="J9" t="s">
-        <v>7985</v>
+        <v>7984</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -26902,7 +26891,7 @@
         <v>7528</v>
       </c>
       <c r="J10" t="s">
-        <v>7985</v>
+        <v>7984</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -26934,7 +26923,7 @@
         <v>7529</v>
       </c>
       <c r="J11" t="s">
-        <v>7985</v>
+        <v>7984</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -26966,7 +26955,7 @@
         <v>7530</v>
       </c>
       <c r="J12" t="s">
-        <v>7985</v>
+        <v>7984</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -26998,7 +26987,7 @@
         <v>7531</v>
       </c>
       <c r="J13" t="s">
-        <v>7985</v>
+        <v>7984</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -27030,7 +27019,7 @@
         <v>7532</v>
       </c>
       <c r="J14" t="s">
-        <v>7985</v>
+        <v>7984</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -27062,7 +27051,7 @@
         <v>7533</v>
       </c>
       <c r="J15" t="s">
-        <v>7985</v>
+        <v>7984</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -27094,7 +27083,7 @@
         <v>7534</v>
       </c>
       <c r="J16" t="s">
-        <v>7985</v>
+        <v>7984</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -27126,7 +27115,7 @@
         <v>7535</v>
       </c>
       <c r="J17" t="s">
-        <v>7985</v>
+        <v>7984</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -27158,7 +27147,7 @@
         <v>7539</v>
       </c>
       <c r="J18" t="s">
-        <v>7985</v>
+        <v>7984</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -27190,7 +27179,7 @@
         <v>7543</v>
       </c>
       <c r="J19" t="s">
-        <v>7985</v>
+        <v>7984</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -27222,7 +27211,7 @@
         <v>7546</v>
       </c>
       <c r="J20" t="s">
-        <v>7985</v>
+        <v>7984</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -27254,7 +27243,7 @@
         <v>7552</v>
       </c>
       <c r="J21" t="s">
-        <v>7985</v>
+        <v>7984</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -27286,7 +27275,7 @@
         <v>7554</v>
       </c>
       <c r="J22" t="s">
-        <v>7985</v>
+        <v>7984</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="16" x14ac:dyDescent="0.2">
@@ -27318,7 +27307,7 @@
         <v>7557</v>
       </c>
       <c r="J23" t="s">
-        <v>7985</v>
+        <v>7984</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
@@ -27350,7 +27339,7 @@
         <v>7562</v>
       </c>
       <c r="J24" t="s">
-        <v>7985</v>
+        <v>7984</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
@@ -27382,7 +27371,7 @@
         <v>7567</v>
       </c>
       <c r="J25" t="s">
-        <v>7985</v>
+        <v>7984</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
@@ -27414,7 +27403,7 @@
         <v>7569</v>
       </c>
       <c r="J26" t="s">
-        <v>7985</v>
+        <v>7984</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
@@ -27446,7 +27435,7 @@
         <v>7574</v>
       </c>
       <c r="J27" t="s">
-        <v>7985</v>
+        <v>7984</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
@@ -27478,7 +27467,7 @@
         <v>7579</v>
       </c>
       <c r="J28" t="s">
-        <v>7985</v>
+        <v>7984</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
@@ -27510,7 +27499,7 @@
         <v>7583</v>
       </c>
       <c r="J29" t="s">
-        <v>7985</v>
+        <v>7984</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
@@ -27542,7 +27531,7 @@
         <v>7587</v>
       </c>
       <c r="J30" t="s">
-        <v>7985</v>
+        <v>7984</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
@@ -27574,7 +27563,7 @@
         <v>7593</v>
       </c>
       <c r="J31" t="s">
-        <v>7985</v>
+        <v>7984</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
@@ -27606,7 +27595,7 @@
         <v>7599</v>
       </c>
       <c r="J32" t="s">
-        <v>7985</v>
+        <v>7984</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
@@ -27638,7 +27627,7 @@
         <v>7602</v>
       </c>
       <c r="J33" t="s">
-        <v>7985</v>
+        <v>7984</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
@@ -27670,7 +27659,7 @@
         <v>7606</v>
       </c>
       <c r="J34" t="s">
-        <v>7985</v>
+        <v>7984</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
@@ -27702,7 +27691,7 @@
         <v>7612</v>
       </c>
       <c r="J35" t="s">
-        <v>7985</v>
+        <v>7984</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
@@ -27734,7 +27723,7 @@
         <v>7616</v>
       </c>
       <c r="J36" t="s">
-        <v>7985</v>
+        <v>7984</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
@@ -27766,7 +27755,7 @@
         <v>7622</v>
       </c>
       <c r="J37" t="s">
-        <v>7985</v>
+        <v>7984</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
@@ -27798,7 +27787,7 @@
         <v>7626</v>
       </c>
       <c r="J38" t="s">
-        <v>7985</v>
+        <v>7984</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
@@ -27830,7 +27819,7 @@
         <v>7632</v>
       </c>
       <c r="J39" t="s">
-        <v>7985</v>
+        <v>7984</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
@@ -27862,7 +27851,7 @@
         <v>7638</v>
       </c>
       <c r="J40" t="s">
-        <v>7985</v>
+        <v>7984</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
@@ -27894,7 +27883,7 @@
         <v>7642</v>
       </c>
       <c r="J41" t="s">
-        <v>7985</v>
+        <v>7984</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
@@ -27926,7 +27915,7 @@
         <v>7648</v>
       </c>
       <c r="J42" t="s">
-        <v>7985</v>
+        <v>7984</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
@@ -27958,7 +27947,7 @@
         <v>7652</v>
       </c>
       <c r="J43" t="s">
-        <v>7985</v>
+        <v>7984</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
@@ -27990,7 +27979,7 @@
         <v>7658</v>
       </c>
       <c r="J44" t="s">
-        <v>7985</v>
+        <v>7984</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
@@ -28022,7 +28011,7 @@
         <v>7664</v>
       </c>
       <c r="J45" t="s">
-        <v>7985</v>
+        <v>7984</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
@@ -28054,7 +28043,7 @@
         <v>7667</v>
       </c>
       <c r="J46" t="s">
-        <v>7985</v>
+        <v>7984</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
@@ -28086,7 +28075,7 @@
         <v>7670</v>
       </c>
       <c r="J47" t="s">
-        <v>7985</v>
+        <v>7984</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
@@ -28118,7 +28107,7 @@
         <v>7676</v>
       </c>
       <c r="J48" t="s">
-        <v>7985</v>
+        <v>7984</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
@@ -28150,7 +28139,7 @@
         <v>7682</v>
       </c>
       <c r="J49" t="s">
-        <v>7985</v>
+        <v>7984</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
@@ -28182,7 +28171,7 @@
         <v>7685</v>
       </c>
       <c r="J50" t="s">
-        <v>7985</v>
+        <v>7984</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
@@ -28214,7 +28203,7 @@
         <v>7687</v>
       </c>
       <c r="J51" t="s">
-        <v>7985</v>
+        <v>7984</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
@@ -28246,7 +28235,7 @@
         <v>7691</v>
       </c>
       <c r="J52" t="s">
-        <v>7985</v>
+        <v>7984</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
@@ -28278,7 +28267,7 @@
         <v>7694</v>
       </c>
       <c r="J53" t="s">
-        <v>7985</v>
+        <v>7984</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
@@ -28310,7 +28299,7 @@
         <v>7700</v>
       </c>
       <c r="J54" t="s">
-        <v>7985</v>
+        <v>7984</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
@@ -28342,7 +28331,7 @@
         <v>7702</v>
       </c>
       <c r="J55" t="s">
-        <v>7985</v>
+        <v>7984</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
@@ -28374,7 +28363,7 @@
         <v>7706</v>
       </c>
       <c r="J56" t="s">
-        <v>7985</v>
+        <v>7984</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
@@ -28406,7 +28395,7 @@
         <v>7710</v>
       </c>
       <c r="J57" t="s">
-        <v>7985</v>
+        <v>7984</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
@@ -28438,7 +28427,7 @@
         <v>7716</v>
       </c>
       <c r="J58" t="s">
-        <v>7985</v>
+        <v>7984</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
@@ -28470,7 +28459,7 @@
         <v>7718</v>
       </c>
       <c r="J59" t="s">
-        <v>7985</v>
+        <v>7984</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
@@ -28502,7 +28491,7 @@
         <v>7723</v>
       </c>
       <c r="J60" t="s">
-        <v>7985</v>
+        <v>7984</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
@@ -28534,7 +28523,7 @@
         <v>7728</v>
       </c>
       <c r="J61" t="s">
-        <v>7985</v>
+        <v>7984</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
@@ -28566,7 +28555,7 @@
         <v>7732</v>
       </c>
       <c r="J62" t="s">
-        <v>7985</v>
+        <v>7984</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
@@ -28598,7 +28587,7 @@
         <v>7738</v>
       </c>
       <c r="J63" t="s">
-        <v>7985</v>
+        <v>7984</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
@@ -28630,7 +28619,7 @@
         <v>7743</v>
       </c>
       <c r="J64" t="s">
-        <v>7985</v>
+        <v>7984</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
@@ -28662,7 +28651,7 @@
         <v>7749</v>
       </c>
       <c r="J65" t="s">
-        <v>7985</v>
+        <v>7984</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
@@ -28694,7 +28683,7 @@
         <v>7753</v>
       </c>
       <c r="J66" t="s">
-        <v>7985</v>
+        <v>7984</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
@@ -28726,7 +28715,7 @@
         <v>7756</v>
       </c>
       <c r="J67" t="s">
-        <v>7985</v>
+        <v>7984</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
@@ -28758,7 +28747,7 @@
         <v>7762</v>
       </c>
       <c r="J68" t="s">
-        <v>7985</v>
+        <v>7984</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
@@ -28790,7 +28779,7 @@
         <v>7764</v>
       </c>
       <c r="J69" t="s">
-        <v>7985</v>
+        <v>7984</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
@@ -28822,7 +28811,7 @@
         <v>7767</v>
       </c>
       <c r="J70" t="s">
-        <v>7985</v>
+        <v>7984</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
@@ -28854,7 +28843,7 @@
         <v>7772</v>
       </c>
       <c r="J71" t="s">
-        <v>7985</v>
+        <v>7984</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
@@ -28886,7 +28875,7 @@
         <v>7778</v>
       </c>
       <c r="J72" t="s">
-        <v>7985</v>
+        <v>7984</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
@@ -28918,7 +28907,7 @@
         <v>7784</v>
       </c>
       <c r="J73" t="s">
-        <v>7985</v>
+        <v>7984</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
@@ -28950,7 +28939,7 @@
         <v>7786</v>
       </c>
       <c r="J74" t="s">
-        <v>7985</v>
+        <v>7984</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
@@ -28982,7 +28971,7 @@
         <v>7788</v>
       </c>
       <c r="J75" t="s">
-        <v>7985</v>
+        <v>7984</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
@@ -29014,7 +29003,7 @@
         <v>7791</v>
       </c>
       <c r="J76" t="s">
-        <v>7985</v>
+        <v>7984</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
@@ -29046,7 +29035,7 @@
         <v>7797</v>
       </c>
       <c r="J77" t="s">
-        <v>7985</v>
+        <v>7984</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
@@ -29078,7 +29067,7 @@
         <v>7801</v>
       </c>
       <c r="J78" t="s">
-        <v>7985</v>
+        <v>7984</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
@@ -29110,7 +29099,7 @@
         <v>7807</v>
       </c>
       <c r="J79" t="s">
-        <v>7985</v>
+        <v>7984</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
@@ -29142,7 +29131,7 @@
         <v>7809</v>
       </c>
       <c r="J80" t="s">
-        <v>7985</v>
+        <v>7984</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.2">
@@ -29174,7 +29163,7 @@
         <v>7815</v>
       </c>
       <c r="J81" t="s">
-        <v>7985</v>
+        <v>7984</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.2">
@@ -29207,7 +29196,7 @@
         <v>7822</v>
       </c>
       <c r="J82" t="s">
-        <v>7986</v>
+        <v>7985</v>
       </c>
       <c r="L82">
         <f>LEN(A82)</f>
@@ -29260,14 +29249,14 @@
         <v>7828</v>
       </c>
       <c r="J83" t="s">
-        <v>7986</v>
+        <v>7985</v>
       </c>
       <c r="L83">
-        <f t="shared" ref="L83:L110" si="0">LEN(A83)</f>
+        <f t="shared" ref="L83:L109" si="0">LEN(A83)</f>
         <v>88</v>
       </c>
       <c r="M83">
-        <f t="shared" ref="M83:M110" si="1">LEN(B83)</f>
+        <f t="shared" ref="M83:M109" si="1">LEN(B83)</f>
         <v>89</v>
       </c>
       <c r="N83">
@@ -29313,7 +29302,7 @@
         <v>7834</v>
       </c>
       <c r="J84" t="s">
-        <v>7986</v>
+        <v>7985</v>
       </c>
       <c r="L84">
         <f t="shared" si="0"/>
@@ -29366,7 +29355,7 @@
         <v>7840</v>
       </c>
       <c r="J85" t="s">
-        <v>7987</v>
+        <v>7985</v>
       </c>
       <c r="L85">
         <f t="shared" si="0"/>
@@ -29419,7 +29408,7 @@
         <v>7846</v>
       </c>
       <c r="J86" t="s">
-        <v>7987</v>
+        <v>7985</v>
       </c>
       <c r="L86">
         <f t="shared" si="0"/>
@@ -29472,7 +29461,7 @@
         <v>7852</v>
       </c>
       <c r="J87" t="s">
-        <v>7987</v>
+        <v>7985</v>
       </c>
       <c r="L87">
         <f t="shared" si="0"/>
@@ -29525,7 +29514,7 @@
         <v>7858</v>
       </c>
       <c r="J88" t="s">
-        <v>7987</v>
+        <v>7985</v>
       </c>
       <c r="L88">
         <f t="shared" si="0"/>
@@ -29578,7 +29567,7 @@
         <v>7864</v>
       </c>
       <c r="J89" t="s">
-        <v>7987</v>
+        <v>7985</v>
       </c>
       <c r="L89">
         <f t="shared" si="0"/>
@@ -29631,7 +29620,7 @@
         <v>7870</v>
       </c>
       <c r="J90" t="s">
-        <v>7987</v>
+        <v>7985</v>
       </c>
       <c r="L90">
         <f t="shared" si="0"/>
@@ -29684,7 +29673,7 @@
         <v>7876</v>
       </c>
       <c r="J91" t="s">
-        <v>7986</v>
+        <v>7985</v>
       </c>
       <c r="L91">
         <f t="shared" si="0"/>
@@ -29737,7 +29726,7 @@
         <v>7882</v>
       </c>
       <c r="J92" t="s">
-        <v>7986</v>
+        <v>7985</v>
       </c>
       <c r="L92">
         <f t="shared" si="0"/>
@@ -29790,7 +29779,7 @@
         <v>7888</v>
       </c>
       <c r="J93" t="s">
-        <v>7987</v>
+        <v>7985</v>
       </c>
       <c r="L93">
         <f t="shared" si="0"/>
@@ -29843,7 +29832,7 @@
         <v>7894</v>
       </c>
       <c r="J94" t="s">
-        <v>7987</v>
+        <v>7985</v>
       </c>
       <c r="L94">
         <f t="shared" si="0"/>
@@ -29896,7 +29885,7 @@
         <v>7900</v>
       </c>
       <c r="J95" t="s">
-        <v>7987</v>
+        <v>7985</v>
       </c>
       <c r="L95">
         <f t="shared" si="0"/>
@@ -29949,7 +29938,7 @@
         <v>7906</v>
       </c>
       <c r="J96" t="s">
-        <v>7987</v>
+        <v>7985</v>
       </c>
       <c r="L96">
         <f t="shared" si="0"/>
@@ -30002,7 +29991,7 @@
         <v>7912</v>
       </c>
       <c r="J97" t="s">
-        <v>7987</v>
+        <v>7985</v>
       </c>
       <c r="L97">
         <f t="shared" si="0"/>
@@ -30055,7 +30044,7 @@
         <v>7918</v>
       </c>
       <c r="J98" t="s">
-        <v>7987</v>
+        <v>7985</v>
       </c>
       <c r="L98">
         <f t="shared" si="0"/>
@@ -30108,7 +30097,7 @@
         <v>7924</v>
       </c>
       <c r="J99" t="s">
-        <v>7987</v>
+        <v>7985</v>
       </c>
       <c r="L99">
         <f t="shared" si="0"/>
@@ -30161,7 +30150,7 @@
         <v>7930</v>
       </c>
       <c r="J100" t="s">
-        <v>7987</v>
+        <v>7985</v>
       </c>
       <c r="L100">
         <f t="shared" si="0"/>
@@ -30214,7 +30203,7 @@
         <v>7936</v>
       </c>
       <c r="J101" t="s">
-        <v>7987</v>
+        <v>7985</v>
       </c>
       <c r="L101">
         <f t="shared" si="0"/>
@@ -30267,7 +30256,7 @@
         <v>7942</v>
       </c>
       <c r="J102" t="s">
-        <v>7987</v>
+        <v>7985</v>
       </c>
       <c r="L102">
         <f t="shared" si="0"/>
@@ -30320,7 +30309,7 @@
         <v>7948</v>
       </c>
       <c r="J103" t="s">
-        <v>7987</v>
+        <v>7985</v>
       </c>
       <c r="L103">
         <f t="shared" si="0"/>
@@ -30373,7 +30362,7 @@
         <v>7954</v>
       </c>
       <c r="J104" t="s">
-        <v>7987</v>
+        <v>7985</v>
       </c>
       <c r="L104">
         <f t="shared" si="0"/>
@@ -30426,7 +30415,7 @@
         <v>7960</v>
       </c>
       <c r="J105" t="s">
-        <v>7987</v>
+        <v>7985</v>
       </c>
       <c r="L105">
         <f t="shared" si="0"/>
@@ -30479,7 +30468,7 @@
         <v>7966</v>
       </c>
       <c r="J106" t="s">
-        <v>7987</v>
+        <v>7985</v>
       </c>
       <c r="L106">
         <f t="shared" si="0"/>
@@ -30532,7 +30521,7 @@
         <v>7972</v>
       </c>
       <c r="J107" t="s">
-        <v>7987</v>
+        <v>7985</v>
       </c>
       <c r="L107">
         <f t="shared" si="0"/>
@@ -30585,7 +30574,7 @@
         <v>7978</v>
       </c>
       <c r="J108" t="s">
-        <v>7987</v>
+        <v>7985</v>
       </c>
       <c r="L108">
         <f t="shared" si="0"/>
@@ -30610,19 +30599,19 @@
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
+        <v>7986</v>
+      </c>
+      <c r="B109" t="s">
         <v>7979</v>
       </c>
-      <c r="B109" t="s">
+      <c r="C109" t="s">
         <v>7980</v>
       </c>
-      <c r="C109" t="s">
+      <c r="D109" t="s">
         <v>7981</v>
       </c>
-      <c r="D109" t="s">
+      <c r="E109" t="s">
         <v>7982</v>
-      </c>
-      <c r="E109" t="s">
-        <v>7983</v>
       </c>
       <c r="F109">
         <v>1</v>
@@ -30631,18 +30620,17 @@
         <v>7816</v>
       </c>
       <c r="H109">
-        <f>VLOOKUP(A109,[1]Sheet1!$B$1:$C$202,2,0)</f>
         <v>7</v>
       </c>
       <c r="I109" t="s">
-        <v>7984</v>
+        <v>7983</v>
       </c>
       <c r="J109" t="s">
-        <v>7987</v>
+        <v>7985</v>
       </c>
       <c r="L109">
         <f t="shared" si="0"/>
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M109">
         <f t="shared" si="1"/>
@@ -30661,240 +30649,8 @@
         <v>79</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
-        <v>7988</v>
-      </c>
-      <c r="B110" t="s">
-        <v>7989</v>
-      </c>
-      <c r="C110" t="s">
-        <v>7989</v>
-      </c>
-      <c r="D110" t="s">
-        <v>7989</v>
-      </c>
-      <c r="E110" t="s">
-        <v>7989</v>
-      </c>
-      <c r="F110">
-        <v>1</v>
-      </c>
-      <c r="G110" t="s">
-        <v>1093</v>
-      </c>
-      <c r="H110">
-        <v>0</v>
-      </c>
-      <c r="I110" s="2" t="s">
-        <v>1093</v>
-      </c>
-      <c r="J110" t="s">
-        <v>7986</v>
-      </c>
-      <c r="L110">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="M110">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
-        <v>7988</v>
-      </c>
-      <c r="B111" t="s">
-        <v>7989</v>
-      </c>
-      <c r="C111" t="s">
-        <v>7989</v>
-      </c>
-      <c r="D111" t="s">
-        <v>7989</v>
-      </c>
-      <c r="E111" t="s">
-        <v>7989</v>
-      </c>
-      <c r="F111">
-        <v>1</v>
-      </c>
-      <c r="G111" t="s">
-        <v>1093</v>
-      </c>
-      <c r="H111">
-        <v>0</v>
-      </c>
-      <c r="I111" s="2" t="s">
-        <v>1093</v>
-      </c>
-      <c r="J111" t="s">
-        <v>7986</v>
-      </c>
-    </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
-        <v>7988</v>
-      </c>
-      <c r="B112" t="s">
-        <v>7989</v>
-      </c>
-      <c r="C112" t="s">
-        <v>7989</v>
-      </c>
-      <c r="D112" t="s">
-        <v>7989</v>
-      </c>
-      <c r="E112" t="s">
-        <v>7989</v>
-      </c>
-      <c r="F112">
-        <v>1</v>
-      </c>
-      <c r="G112" t="s">
-        <v>1093</v>
-      </c>
-      <c r="H112">
-        <v>0</v>
-      </c>
-      <c r="I112" s="2" t="s">
-        <v>1093</v>
-      </c>
-      <c r="J112" t="s">
-        <v>7986</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
-        <v>7988</v>
-      </c>
-      <c r="B113" t="s">
-        <v>7989</v>
-      </c>
-      <c r="C113" t="s">
-        <v>7989</v>
-      </c>
-      <c r="D113" t="s">
-        <v>7989</v>
-      </c>
-      <c r="E113" t="s">
-        <v>7989</v>
-      </c>
-      <c r="F113">
-        <v>1</v>
-      </c>
-      <c r="G113" t="s">
-        <v>1093</v>
-      </c>
-      <c r="H113">
-        <v>0</v>
-      </c>
-      <c r="I113" s="2" t="s">
-        <v>1093</v>
-      </c>
-      <c r="J113" t="s">
-        <v>7986</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
-        <v>7988</v>
-      </c>
-      <c r="B114" t="s">
-        <v>7989</v>
-      </c>
-      <c r="C114" t="s">
-        <v>7989</v>
-      </c>
-      <c r="D114" t="s">
-        <v>7989</v>
-      </c>
-      <c r="E114" t="s">
-        <v>7989</v>
-      </c>
-      <c r="F114">
-        <v>1</v>
-      </c>
-      <c r="G114" t="s">
-        <v>1093</v>
-      </c>
-      <c r="H114">
-        <v>0</v>
-      </c>
-      <c r="I114" s="2" t="s">
-        <v>1093</v>
-      </c>
-      <c r="J114" t="s">
-        <v>7986</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
-        <v>7988</v>
-      </c>
-      <c r="B115" t="s">
-        <v>7989</v>
-      </c>
-      <c r="C115" t="s">
-        <v>7989</v>
-      </c>
-      <c r="D115" t="s">
-        <v>7989</v>
-      </c>
-      <c r="E115" t="s">
-        <v>7989</v>
-      </c>
-      <c r="F115">
-        <v>1</v>
-      </c>
-      <c r="G115" t="s">
-        <v>1093</v>
-      </c>
-      <c r="H115">
-        <v>0</v>
-      </c>
-      <c r="I115" s="2" t="s">
-        <v>1093</v>
-      </c>
-      <c r="J115" t="s">
-        <v>7986</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
-        <v>7988</v>
-      </c>
-      <c r="B116" t="s">
-        <v>7989</v>
-      </c>
-      <c r="C116" t="s">
-        <v>7989</v>
-      </c>
-      <c r="D116" t="s">
-        <v>7989</v>
-      </c>
-      <c r="E116" t="s">
-        <v>7989</v>
-      </c>
-      <c r="F116">
-        <v>1</v>
-      </c>
-      <c r="G116" t="s">
-        <v>1093</v>
-      </c>
-      <c r="H116">
-        <v>0</v>
-      </c>
-      <c r="I116" s="2" t="s">
-        <v>1093</v>
-      </c>
-      <c r="J116" t="s">
-        <v>7986</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="L82:P109 L110:M110">
+  <conditionalFormatting sqref="L82:P109">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>100</formula>
     </cfRule>

--- a/DB.xlsx
+++ b/DB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erantirer/PycharmProjects/PsychometricTestBot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5842938F-14B5-AF41-B0B3-679489C51743}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{707998B0-16E9-BB42-91FD-296B9AD986FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26565,7 +26565,9 @@
   <sheetPr codeName="גיליון1"/>
   <dimension ref="A1:P109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
